--- a/セキュリティ/SAML認証.xlsx
+++ b/セキュリティ/SAML認証.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723d7157f814b9a4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa-mk2\Doc\セキュリティ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1326" documentId="8_{BB9529A6-2305-4C72-BA4E-916496B6AC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18CC13A7-48E2-41A4-8E44-9C62A0E87A8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41607CC-D388-4B9C-A477-0C9EBC605452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" xr2:uid="{18C0A98A-257A-4D5F-B12D-A16E19A62A66}"/>
+    <workbookView xWindow="810" yWindow="0" windowWidth="25260" windowHeight="15600" tabRatio="877" xr2:uid="{18C0A98A-257A-4D5F-B12D-A16E19A62A66}"/>
   </bookViews>
   <sheets>
     <sheet name="事象の回答" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="560">
   <si>
     <t>openssl req -new -newkey rsa:2048 -nodes -keyout sp.key -out sp.csr</t>
   </si>
@@ -2729,19 +2729,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>データが改ざんされていないことを検証するための証明書のようです。</t>
-    <rPh sb="4" eb="5">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>また、署名はSAMLのリクエスト、レスポンスそれぞれ別の証明書で行うことが一般的なようです。</t>
     <rPh sb="3" eb="5">
       <t>ショメイ</t>
@@ -2779,22 +2766,6 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>恐らく、署名作成段階でエラーになったため、Idp側にリクエストが送られる前にエラーになっていると考えられます。</t>
-    <rPh sb="24" eb="25">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2875,114 +2846,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>上記チュートリアルの場合、Idp→SPへの通信に対して署名する方法であり、SPへ配布するようの公開鍵がダウンロードされます。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショメイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>コウカイカギ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>上記推測通りだとした場合、それぞれに公開鍵を登録させておく必要があると思われますが、調べた所ではメタデータ情報から勝手に公開鍵ダウンロードしてくるので手動での登録は不要とのことです。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイソク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>コウカイカギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カッテ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>コウカイカギ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>自己証明書変更後のエラーに関しては、エラーメッセージからでは事象が特定できないため、ログなどから詳細情報を確認させていただく必要がございます。</t>
-    <rPh sb="5" eb="8">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>今回の事象と回答</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -2996,47 +2859,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私も理解が足りていなかったのですが、SAML認証におけるSP証明書の役割は、通信データに署名をすることで、</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リカイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ショウメイショ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ショメイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>通信の暗号化用と勘違いしていのですが、そちらは、HTTPS（TLS/SSL）が担うようです。</t>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンチガ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ニナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>cerファイルは公開鍵になり、必要ものは「秘密鍵」となるため、そもそもの作り方が異なると思われます。</t>
     <rPh sb="8" eb="10">
       <t>コウカイ</t>
@@ -3090,109 +2912,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>また、WPのマニュアル記載の手順はSP→Ipdへの通信に対して署名する方法であり、そのため秘密鍵と公開鍵の両方が必要でした。(公開鍵が必要な理由は後に説明がございます。)</t>
-    <rPh sb="11" eb="13">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショメイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>そのため、WPアプリがSAMLリクエストに署名する際に、秘密鍵が存在しなかったので「sp_cert_not_found_and_required」エラーが発生したと思われます。</t>
-    <rPh sb="21" eb="23">
-      <t>ショメイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ヒミツカギ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>その後、keytool -genkeypairコマンドによる秘密鍵が含まれた自己証明書に変えたことで、署名が作成されIdp側にリクエストが送られるようになり、エラー内容が変わったと考えられます。</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>ヒミツカギ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ショメイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(なので、キーストアには秘密鍵と公開鍵の両方が含まれている必要がありました。)</t>
-    <rPh sb="12" eb="15">
-      <t>ヒミツカギ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>コウカイカギ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>対応方法として、別の手段でSP用のSP証明書を作成する必要がございますが、EntraIdにはその機能は無さそうなので、別途、認証局（CA）から証明書を発行するか、自己証明書になると思います。</t>
     <rPh sb="0" eb="2">
       <t>タイオウ</t>
@@ -3242,21 +2961,431 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>(「チュートリアル: フェデレーション シングル サインオンのための証明書の管理」で作成している証明書も記載では自己証明書と記載されております。)</t>
-    <rPh sb="42" eb="44">
+    <t>SAML認証における証明書は、通信データに署名をすることで、データが改ざんされていないことを検証に利用されます。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>通信の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暗号化用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は、HTTPS（TLS/SSL）が担います。</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>ニナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SP側の証明書をSP証明書、Idp側の証明書をIpd証明書を記載しているサイトもありました。</t>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>上記チュートリアルの場合、Idp→SPへの通信に対して署名する方法でIdp証明書のになります。そのため、SPへ配布するようの公開鍵がダウンロードされます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>コウカイカギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>また、WPのマニュアル記載の手順はSP→Ipdへの通信に対して署名する方法であり、SP証明書になります。そのため秘密鍵と公開鍵の両方が必要でした。(公開鍵が必要な理由は後に説明します。)</t>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>そのため、SP証明書として必要な、秘密鍵が存在しなかったので「sp_cert_not_found_and_required」エラーが発生したと思われます。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒミツカギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(恐らく、署名作成段階でエラーになったため、Idp側にリクエストが送られる前にエラーになっていると思います。）</t>
+    <rPh sb="25" eb="26">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その後、keytool -genkeypairコマンドによる秘密鍵が含まれる自己証明書に変えたことで、署名が作成されIdp側にリクエストが送られるようになり、エラー内容が変わったと考えられます。</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ヒミツカギ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="48" eb="51">
+    <rPh sb="64" eb="66">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>推測通りだとした場合、それぞれに公開鍵を登録させておく必要があると思われますが、調べた所はメタデータ情報から勝手に公開鍵ダウンロードしてくるので手動での登録は不要とのことです。</t>
+    <rPh sb="0" eb="2">
+      <t>スイソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コウカイカギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>コウカイカギ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(そのため、SPキー証明書には秘密鍵とダウンロード用の公開鍵の両方が含まれている必要がありました。)</t>
+    <rPh sb="10" eb="13">
       <t>ショウメイショ</t>
     </rPh>
-    <rPh sb="52" eb="54">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="56" eb="61">
+    <rPh sb="15" eb="18">
+      <t>ヒミツカギ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>https://zenn.dev/wadahiro/articles/61d39d263dd9e8</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SAMLの証明書更新のお話</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>こちら、SAML証明書の説明をしている情報そのままになってしまいますが、Idp証明書は必須ですが、SP証明書はサービスによっては不要だったりとバラバラなようです。</t>
+    <rPh sb="8" eb="11">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>恐らく、SP側はバラバラのアプリケーションになる可能性があるため、それぞれの証明書のメンテナンスにかかるコストが高く。</t>
+    <rPh sb="0" eb="1">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Idp側は１つサービス内の証明書を管理するだけでよいため、そちらで最低限のセキィリティを担保しているのだと思います。</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タンポ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>今回の対応でも同様に、Entra Id側で正しいIdp証明書を管理し、SP証明書は自己証明書にするのはいかがでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="41" eb="46">
       <t>ジコショウメイショ</t>
     </rPh>
-    <rPh sb="62" eb="64">
-      <t>キサイ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>自己証明書変更後のエラーに関しては、エラーメッセージからでは事象が特定できなかったため、ログなどの詳細情報を確認させていただく必要がございます。</t>
+    <rPh sb="5" eb="8">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -3513,8 +3642,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3529,8 +3658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1770505" y="13310152"/>
-          <a:ext cx="5352538" cy="1225826"/>
+          <a:off x="1787898" y="4146274"/>
+          <a:ext cx="5410517" cy="1368702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3579,6 +3708,18 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Idp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>証明書で検証</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -3591,8 +3732,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130548</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -3613,8 +3754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1770505" y="10866781"/>
-          <a:ext cx="5352538" cy="1118153"/>
+          <a:off x="1787898" y="1524000"/>
+          <a:ext cx="5410517" cy="1309480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3648,7 +3789,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>証明書で検証</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4416,13 +4564,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>130548</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>79099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4437,8 +4585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1770505" y="4182717"/>
-          <a:ext cx="5352538" cy="1225826"/>
+          <a:off x="1787898" y="10775674"/>
+          <a:ext cx="5410517" cy="1406802"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4487,6 +4635,30 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Idp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>証明書で検証</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4499,8 +4671,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130548</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -4521,8 +4693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1770505" y="1739347"/>
-          <a:ext cx="5352538" cy="1118153"/>
+          <a:off x="1787898" y="8124825"/>
+          <a:ext cx="5410517" cy="1366630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4554,6 +4726,52 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>証明書で検証</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -11656,10 +11874,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -11977,58 +12191,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974B0FE-A09F-4909-B4F5-C2D0D3072697}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ60" sqref="AZ60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>536</v>
+      <c r="B3" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>537</v>
-      </c>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
@@ -12043,33 +12260,33 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
@@ -12079,31 +12296,59 @@
     </row>
     <row r="59" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B94" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
         <v>529</v>
       </c>
     </row>
@@ -12111,9 +12356,10 @@
   <phoneticPr fontId="6"/>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" xr:uid="{85868284-EED6-4FC0-9FF7-62F38A790B5B}"/>
+    <hyperlink ref="B63" r:id="rId2" xr:uid="{B83631FD-26B9-466A-B16C-5473F6564DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/セキュリティ/SAML認証.xlsx
+++ b/セキュリティ/SAML認証.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa-mk2\Doc\セキュリティ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41607CC-D388-4B9C-A477-0C9EBC605452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC125B-70D5-4E55-A16F-EC03CFF2DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="0" windowWidth="25260" windowHeight="15600" tabRatio="877" xr2:uid="{18C0A98A-257A-4D5F-B12D-A16E19A62A66}"/>
+    <workbookView xWindow="2145" yWindow="165" windowWidth="25260" windowHeight="14910" tabRatio="877" firstSheet="3" activeTab="11" xr2:uid="{18C0A98A-257A-4D5F-B12D-A16E19A62A66}"/>
   </bookViews>
   <sheets>
     <sheet name="事象の回答" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Entra ID を使用した SAML 認証" sheetId="8" r:id="rId9"/>
     <sheet name="Tomcat+MicrosoftEntraIDでSSO" sheetId="12" r:id="rId10"/>
     <sheet name="補足openssl" sheetId="3" r:id="rId11"/>
+    <sheet name="トラブルシューティング" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="803">
   <si>
     <t>openssl req -new -newkey rsa:2048 -nodes -keyout sp.key -out sp.csr</t>
   </si>
@@ -3317,16 +3318,7 @@
       <t>タンポ</t>
     </rPh>
     <rPh sb="53" eb="54">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>カンガ</t>
+      <t>オモコウリョケッカカンガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -3388,13 +3380,1196 @@
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Microsoft Entra ID（IdP）と Web アプリ（SP）で SAML 認証を行う際に、お互いに設定しておくべき情報</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>設定場所（Entra ID）</t>
+  </si>
+  <si>
+    <t>エンティティ ID (Entity ID, Identifier)</t>
+  </si>
+  <si>
+    <r>
+      <t>SP の識別子（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://your-app.example.com/metadata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>**「基本 SAML 構成」**の「識別子 (エンティティ ID)」</t>
+  </si>
+  <si>
+    <t>Assertion Consumer Service (ACS) URL</t>
+  </si>
+  <si>
+    <r>
+      <t>SAML 応答（Assertion）を受け取る SP のエンドポイント（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://your-app.example.com/sso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>**「基本 SAML 構成」**の「応答 URL (Assertion Consumer Service URL)」</t>
+  </si>
+  <si>
+    <t>ログイン URL</t>
+  </si>
+  <si>
+    <r>
+      <t>SP へのログインエントリポイント（オプション、例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://your-app.example.com/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>**「基本 SAML 構成」**の「サインオン URL」</t>
+  </si>
+  <si>
+    <t>証明書（SP 証明書）</t>
+  </si>
+  <si>
+    <t>SP 側の証明書（SAML 署名に使用）</t>
+  </si>
+  <si>
+    <t>**「トークン署名証明書」**で登録可能</t>
+  </si>
+  <si>
+    <t>RelayState</t>
+  </si>
+  <si>
+    <t>SAML のリクエスト時に渡すリダイレクト URL（オプション）</t>
+  </si>
+  <si>
+    <t>「シングルサインオン」設定の SAML リクエストパラメータ</t>
+  </si>
+  <si>
+    <t>設定場所（SP 側）</t>
+  </si>
+  <si>
+    <t>IdP の SSO エンドポイント (Login URL)</t>
+  </si>
+  <si>
+    <t>Entra ID からの SAML 認証リクエストを送信する URL</t>
+  </si>
+  <si>
+    <r>
+      <t>idp_sso_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://login.microsoftonline.com/{tenant_id}/saml2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>IdP のエンティティ ID (Issuer)</t>
+  </si>
+  <si>
+    <r>
+      <t>Entra ID の識別子（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>https://sts.windows.net/{tenant_id}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>idp_entity_id</t>
+  </si>
+  <si>
+    <t>IdP の SAML 証明書 (Base64形式)</t>
+  </si>
+  <si>
+    <t>SAML 応答（Assertion）の署名検証に使用する IdP の公開鍵</t>
+  </si>
+  <si>
+    <r>
+      <t>idp_cert.pem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> に保存</t>
+    </r>
+  </si>
+  <si>
+    <t>Logout URL (オプション)</t>
+  </si>
+  <si>
+    <t>シングルログアウト (SLO) のエンドポイント</t>
+  </si>
+  <si>
+    <t>idp_logout_url</t>
+  </si>
+  <si>
+    <t>ユーザー属性 (Attribute Mapping)</t>
+  </si>
+  <si>
+    <t>SAML 応答内のユーザー情報のマッピング</t>
+  </si>
+  <si>
+    <t>設定項目</t>
+  </si>
+  <si>
+    <t>設定場所</t>
+  </si>
+  <si>
+    <t>SAML 署名</t>
+  </si>
+  <si>
+    <t>SP → IdP に送る SAML リクエストに署名をつける</t>
+  </si>
+  <si>
+    <t>SP 側で設定</t>
+  </si>
+  <si>
+    <t>SAML 暗号化</t>
+  </si>
+  <si>
+    <t>SAML アサーションの暗号化</t>
+  </si>
+  <si>
+    <t>SP 側または IdP 側で設定</t>
+  </si>
+  <si>
+    <t>シングルログアウト (SLO)</t>
+  </si>
+  <si>
+    <t>ユーザーのログアウト時に Entra ID も連携してログアウトさせる</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SP &amp; IdP の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Logout URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を設定</t>
+    </r>
+  </si>
+  <si>
+    <t>Entra ID (IdP) に設定</t>
+  </si>
+  <si>
+    <t>Web アプリ (SP) に設定</t>
+  </si>
+  <si>
+    <t>エンティティ ID</t>
+  </si>
+  <si>
+    <t>SP の Entity ID を設定</t>
+  </si>
+  <si>
+    <t>IdP の Entity ID を設定</t>
+  </si>
+  <si>
+    <t>Assertion Consumer Service URL</t>
+  </si>
+  <si>
+    <t>SP の ACS URL を設定</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SSO エンドポイント</t>
+  </si>
+  <si>
+    <t>IdP の SSO URL を設定</t>
+  </si>
+  <si>
+    <t>SAML 証明書</t>
+  </si>
+  <si>
+    <t>SP 証明書をアップロード</t>
+  </si>
+  <si>
+    <t>IdP 証明書をダウンロードして設定</t>
+  </si>
+  <si>
+    <t>ユーザー属性</t>
+  </si>
+  <si>
+    <t>Entra ID で定義</t>
+  </si>
+  <si>
+    <t>SAML の Attribute Mapping を設定</t>
+  </si>
+  <si>
+    <t>SP の Logout URL を設定</t>
+  </si>
+  <si>
+    <t>IdP の Logout URL を設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IdP（Microsoft Entra ID）で設定する情報（SP から提供される情報）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web アプリ（SP）から Entra ID に提供する情報</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SP（Web アプリ）で設定する情報（IdP から提供される情報）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Entra ID から Web アプリ（SP）に提供する情報</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+  </si>
+  <si>
+    <t>追加設定（オプション）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HTTPステータス 401 Unauthorized」「invalid SAML AuthnResponse」</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>① SAML 認証レスポンスの内容を確認</t>
+  </si>
+  <si>
+    <t>1. SAML Response が SP に正しく届いているか？</t>
+  </si>
+  <si>
+    <t>SAML Tracer（ブラウザ拡張） を使って、Entra ID（IdP）から SP に送られた SAML 応答をキャプチャして確認してください。</t>
+  </si>
+  <si>
+    <t>ログを確認 し、SP 側で SAMLResponse を受信しているかチェック。</t>
+  </si>
+  <si>
+    <t>2. SAML Response のステータスコード</t>
+  </si>
+  <si>
+    <t>StatusCode="Success" になっているか？</t>
+  </si>
+  <si>
+    <t>AuthnFailed や InvalidNameIDPolicy などのエラーが出ていないか？</t>
+  </si>
+  <si>
+    <t>② SP 側の SAML 設定が正しいか確認</t>
+  </si>
+  <si>
+    <t>1. Assertion Consumer Service (ACS) URL の設定ミス</t>
+  </si>
+  <si>
+    <t>Entra ID に設定した 「応答 URL (ACS URL)」 と、SP 側の SAML 受信エンドポイントが一致しているか？</t>
+  </si>
+  <si>
+    <t>例えば、https://your-app.example.com/sso のように、SP 側の URL に一致しているか確認 してください。</t>
+  </si>
+  <si>
+    <t>2. SP 側の SAML 証明書の設定ミス</t>
+  </si>
+  <si>
+    <t>Entra ID からダウンロードした SAML 証明書 が SP 側に正しく設定されているか？</t>
+  </si>
+  <si>
+    <t>SP が SAML 応答を検証するための IdP 証明書が間違っていないか？</t>
+  </si>
+  <si>
+    <t>Entra ID で 応答 URL (ACS URL) を再確認。</t>
+  </si>
+  <si>
+    <t>SP で IdP 証明書を適切に設定し、パスの指定が正しいか 確認。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Entra ID の </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAML 設定（エンティティ ID、応答 URL など）が正しいか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 確認。</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・SAML レスポンスの </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Assertion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 内の </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>NameID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> や </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が正しく設定されているか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 確認。</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対応策:</t>
+  </si>
+  <si>
+    <t>対応策:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 対応策:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>③ 署名の検証エラー</t>
+  </si>
+  <si>
+    <t>1. SAML 応答の署名検証に失敗している可能性</t>
+  </si>
+  <si>
+    <t>SP 側で SAML 署名の検証が正しくできているか？</t>
+  </si>
+  <si>
+    <t>Entra ID の SAML 証明書（公開鍵）を SP に正しく登録しているか？</t>
+  </si>
+  <si>
+    <t>署名のアルゴリズムが SP 側の設定と一致しているか？（例: SHA-256 vs SHA-1）</t>
+  </si>
+  <si>
+    <t>Entra ID からダウンロードした SAML 証明書を SP に正しく設定 し直す。</t>
+  </si>
+  <si>
+    <t>SHA-256 などのアルゴリズム設定を SP 側で適切に変更。</t>
+  </si>
+  <si>
+    <t>④ ユーザー属性（Attribute）マッピングの問題</t>
+  </si>
+  <si>
+    <t>1. SP 側が必要なユーザー属性を受信しているか？</t>
+  </si>
+  <si>
+    <t>SP 側が必要とする NameID や email などの属性が SAML Response に含まれているか？</t>
+  </si>
+  <si>
+    <t>Entra ID の「ユーザー属性とクレーム」で適切な属性が送信されているか？</t>
+  </si>
+  <si>
+    <t>Entra ID の「ユーザー属性とクレーム」設定を確認 し、SP 側が期待する属性を送信するように設定する。</t>
+  </si>
+  <si>
+    <t>⑤ SP 側の認証・セッション管理</t>
+  </si>
+  <si>
+    <t>1. SAML 認証後にセッションが正しく作成されているか？</t>
+  </si>
+  <si>
+    <t>認証成功後、HttpSession や JWT のセッションが適切に管理されているか？</t>
+  </si>
+  <si>
+    <t>SAML 認証は成功しても、アプリが認証情報を保持できていないと 401 Unauthorized になる。</t>
+  </si>
+  <si>
+    <t>具体的なトラブルシューティングの流れ</t>
+  </si>
+  <si>
+    <t>1. SAML Tracer を使って SAML Response をキャプチャ</t>
+  </si>
+  <si>
+    <t>Assertion の NameID や Attributes は正しいか？</t>
+  </si>
+  <si>
+    <t>2. SP のログを確認</t>
+  </si>
+  <si>
+    <t>SAMLResponse が受信されているか？</t>
+  </si>
+  <si>
+    <t>Invalid Signature のエラーが出ていないか？</t>
+  </si>
+  <si>
+    <t>3. SP の SAML 設定を確認</t>
+  </si>
+  <si>
+    <t>ACS URL (https://your-app.example.com/sso) が正しいか？</t>
+  </si>
+  <si>
+    <t>Entra ID の SAML 証明書（Base64）を正しく SP に登録しているか？</t>
+  </si>
+  <si>
+    <t>4. SP 側の認証セッション管理を確認</t>
+  </si>
+  <si>
+    <t>SAML 認証後に HttpSession や JWT などが正しく作成されているか？</t>
+  </si>
+  <si>
+    <t>SAML Tracer</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SAML Tracer は、ブラウザ上で SAML 認証のリクエストとレスポンスを可視化 できるツールです。</t>
+  </si>
+  <si>
+    <t>SAML 認証のデバッグやエラー解析に役立ちます。</t>
+  </si>
+  <si>
+    <t>主に Firefox と Google Chrome の拡張機能として利用できます。</t>
+  </si>
+  <si>
+    <t>Firefox の場合</t>
+  </si>
+  <si>
+    <t>1. SAML Tracer (Firefoxアドオン) にアクセス</t>
+  </si>
+  <si>
+    <t>2. 「Firefox に追加」 をクリック</t>
+  </si>
+  <si>
+    <t>3. 「追加」 を押してインストール完了</t>
+  </si>
+  <si>
+    <t>Chrome の場合</t>
+  </si>
+  <si>
+    <t>1. SAML Chrome Panel にアクセス</t>
+  </si>
+  <si>
+    <t>2. 「Chrome に追加」 をクリック</t>
+  </si>
+  <si>
+    <t>3. 「拡張機能を追加」 でインストール完了</t>
+  </si>
+  <si>
+    <t>https://addons.mozilla.org/ja/firefox/addon/saml-tracer/</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SAML Tracer の使い方</t>
+  </si>
+  <si>
+    <t>1. ブラウザで SAML Tracer を起動</t>
+  </si>
+  <si>
+    <t>Firefox → ツールバーのSAML Tracerアイコンをクリック</t>
+  </si>
+  <si>
+    <t>Chrome → 開発者ツール（F12） → SAML Chrome Panel を開く</t>
+  </si>
+  <si>
+    <t>2. SAML 認証のリクエスト・レスポンスをキャプチャ</t>
+  </si>
+  <si>
+    <t>Web アプリにログインし、Entra ID の SAML 認証を実行</t>
+  </si>
+  <si>
+    <t>SAML Tracer で SAMLRequest（リクエスト） と SAMLResponse（レスポンス）が記録される</t>
+  </si>
+  <si>
+    <t>SAML Tracer のインストール</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">１．SAML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>認証のフローをキャプチャする</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>２．SAML Response の確認</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SAML 認証後、SAML Tracer に以下のようなログが記録されます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイムスタンプ</t>
+  </si>
+  <si>
+    <t>メソッド</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://login.microsoftonline.com/.../saml2</t>
+  </si>
+  <si>
+    <t>200 OK</t>
+  </si>
+  <si>
+    <t>https://your-app.example.com/sso</t>
+  </si>
+  <si>
+    <t>SAMLRequest → SP から IdP (Entra ID) への認証リクエスト</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SAMLResponse → IdP (Entra ID) から SP への認証レスポンス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;samlp:Response xmlns:samlp="urn:oasis:names:tc:SAML:2.0:protocol"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID="_12345" Version="2.0" IssueInstant="2024-02-15T12:34:56Z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;saml:Subject&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:NameID Format="urn:oasis:names:tc:SAML:1.1:nameid-format:emailAddress"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                user@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/saml:NameID&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/saml:Subject&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;saml:AttributeStatement&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:Attribute Name="email"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;saml:AttributeValue&gt;user@example.com&lt;/saml:AttributeValue&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/saml:Attribute&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:Attribute Name="role"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;saml:AttributeValue&gt;admin&lt;/saml:AttributeValue&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/saml:AttributeStatement&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/saml:Assertion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/samlp:Response&gt;</t>
+  </si>
+  <si>
+    <t>よくある問題と対応</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>問題</t>
+  </si>
+  <si>
+    <t>確認ポイント</t>
+  </si>
+  <si>
+    <t>対応策</t>
+  </si>
+  <si>
+    <t>SAMLResponse が取得できない</t>
+  </si>
+  <si>
+    <t>- SAML 認証が開始されているか？</t>
+  </si>
+  <si>
+    <t>SP の metadata.xml 設定を確認</t>
+  </si>
+  <si>
+    <t>SAMLResponse の StatusCode が AuthnFailed</t>
+  </si>
+  <si>
+    <t>- ユーザーの認証に失敗している</t>
+  </si>
+  <si>
+    <t>Entra ID のユーザー認証設定を確認</t>
+  </si>
+  <si>
+    <t>SAMLResponse の Signature に Invalid Signature</t>
+  </si>
+  <si>
+    <t>- SP 側で IdP 証明書が正しいか？</t>
+  </si>
+  <si>
+    <t>Entra ID の証明書を SP に再登録</t>
+  </si>
+  <si>
+    <t>成功時の SAMLResponseの例</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Destination="https://your-app.example.com/sso"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InResponseTo="_abcdef"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;saml:Issuer&gt;https://login.microsoftonline.com/{tenant_id}/saml2&lt;/saml:Issuer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;samlp:Status&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/samlp:Status&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;saml:Assertion xmlns:saml="urn:oasis:names:tc:SAML:2.0:assertion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ID="_assertion123" IssueInstant="2024-02-15T12:34:56Z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Version="2.0"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;saml:Issuer&gt;https://login.microsoftonline.com/{tenant_id}/saml2&lt;/saml:Issuer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:SubjectConfirmation Method="urn:oasis:names:tc:SAML:2.0:cm:bearer"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;saml:SubjectConfirmationData NotOnOrAfter="2024-02-15T12:39:56Z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Recipient="https://your-app.example.com/sso"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/saml:SubjectConfirmation&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;saml:Conditions NotBefore="2024-02-15T12:34:56Z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         NotOnOrAfter="2024-02-15T12:44:56Z"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:AudienceRestriction&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;saml:Audience&gt;https://your-app.example.com&lt;/saml:Audience&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/saml:AudienceRestriction&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/saml:Conditions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;saml:AuthnStatement AuthnInstant="2024-02-15T12:34:56Z"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;saml:AuthnContext&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;saml:AuthnContextClassRef&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    urn:oasis:names:tc:SAML:2.0:ac:classes:PasswordProtectedTransport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/saml:AuthnContextClassRef&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/saml:AuthnContext&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/saml:AuthnStatement&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;ds:Signature xmlns:ds="http://www.w3.org/2000/09/xmldsig#"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!-- 署名データ --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/ds:Signature&gt;</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>samlp:StatusCode が Success → 認証成功</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>saml:Assertion に saml:AttributeStatement があり、ユーザー情報が含まれる</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ds:Signature → レスポンスが署名されている</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>失敗時の SAMLResponseの例</t>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID="_67890" Version="2.0" IssueInstant="2024-02-15T12:35:00Z"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InResponseTo="_xyz123"&gt;</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>samlp:StatusCode が AuthnFailed → 認証失敗</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>samlp:StatusCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Value="urn:oasis:names:tc:SAML:2.0:status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AuthnFailed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"/&gt;</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>samlp:StatusCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Value="urn:oasis:names:tc:SAML:2.0:status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"/&gt;</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>saml:Assertion が ない → 認証情報は送られない</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>署名は必須ではない（IdP の設定による）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その他のエラーステータス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エラーコード</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>考えられる原因</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:SAML:2.0:status:AuthnFailed</t>
+  </si>
+  <si>
+    <t>認証に失敗</t>
+  </si>
+  <si>
+    <t>ユーザーが存在しない、認証情報が間違っている</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:SAML:2.0:status:RequestDenied</t>
+  </si>
+  <si>
+    <t>リクエスト拒否</t>
+  </si>
+  <si>
+    <t>IdP 側のポリシーにより拒否された</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:SAML:2.0:status:InvalidAttrNameOrValue</t>
+  </si>
+  <si>
+    <t>属性の不正</t>
+  </si>
+  <si>
+    <t>SP が必要とする属性が不足している</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:SAML:2.0:status:UnknownPrincipal</t>
+  </si>
+  <si>
+    <t>ユーザー不明</t>
+  </si>
+  <si>
+    <t>IdP にユーザー情報が存在しない</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3486,8 +4661,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3506,8 +4696,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3530,6 +4726,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3539,7 +4815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3611,6 +4887,60 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11388,13 +12718,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11449,13 +12779,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12193,7 +13523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3974B0FE-A09F-4909-B4F5-C2D0D3072697}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -12365,575 +13695,1624 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E8D90-E352-464C-BDF7-21730FF4FAE4}">
-  <dimension ref="A1:AD144"/>
+  <dimension ref="A1:AI181"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+    </row>
+    <row r="8" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+    </row>
+    <row r="9" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+    </row>
+    <row r="10" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+    </row>
+    <row r="11" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+    </row>
+    <row r="12" spans="1:35" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+    </row>
+    <row r="18" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+    </row>
+    <row r="19" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+    </row>
+    <row r="20" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+    </row>
+    <row r="21" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+    </row>
+    <row r="22" spans="2:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+    </row>
+    <row r="26" spans="2:35" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+    </row>
+    <row r="27" spans="2:35" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+    </row>
+    <row r="28" spans="2:35" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C31" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+    </row>
+    <row r="32" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+    </row>
+    <row r="33" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+    </row>
+    <row r="34" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+    </row>
+    <row r="35" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+    </row>
+    <row r="36" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+    </row>
+    <row r="37" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+    </row>
+    <row r="40" spans="2:35" ht="30" x14ac:dyDescent="0.4">
+      <c r="B40" s="18" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="B13" s="18" t="s">
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B50" s="18" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C14" s="12" t="s">
+    <row r="51" spans="2:4" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C51" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="14" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C53" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="D17" s="19" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D54" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C19" s="14" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="14" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C20" s="20" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C57" s="20" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="12" t="s">
+    <row r="59" spans="2:4" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B59" s="12" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="13"/>
+      <c r="C60" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C25" s="14" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C62" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C26" s="13"/>
-      <c r="D26" s="21" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C63" s="13"/>
+      <c r="D63" s="21" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C27" s="13"/>
-      <c r="D27" s="21" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C64" s="13"/>
+      <c r="D64" s="21" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="D28" s="21" t="s">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="D65" s="21" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C30" s="14" t="s">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C67" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AD67" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C31" s="13"/>
-      <c r="D31" s="21" t="s">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C68" s="13"/>
+      <c r="D68" s="21" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="C32" s="13"/>
-      <c r="D32" s="20" t="s">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C69" s="13"/>
+      <c r="D69" s="20" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C34" s="14" t="s">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C71" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C35" s="20" t="s">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C72" s="20" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="B40" s="18" t="s">
+    <row r="77" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="B77" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C41" s="12" t="s">
+    <row r="78" spans="2:30" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C78" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="D79" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E44" s="15" t="s">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E81" s="15" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E45" s="15" t="s">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E82" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E46" s="15" t="s">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E83" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E47" s="15" t="s">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E84" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E48" s="15" t="s">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E85" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E51" s="15" t="s">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E88" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C53" s="12" t="s">
+    <row r="90" spans="3:5" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C90" s="12" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D54" s="15" t="s">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D91" s="15" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D56" s="15" t="s">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D93" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D57" s="15" t="s">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D94" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D58" s="15" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D95" s="15" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D59" s="15" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D96" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D60" s="15" t="s">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D97" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D61" s="15" t="s">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D98" s="15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D62" s="15" t="s">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D99" s="15" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D63" s="15" t="s">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D100" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D64" s="15" t="s">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D101" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D65" s="15" t="s">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D102" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D66" s="15" t="s">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D103" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D67" s="15" t="s">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D104" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D68" s="15" t="s">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D105" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D69" s="15" t="s">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D106" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D70" s="15" t="s">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D107" s="15" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D71" s="15" t="s">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D108" s="15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D72" s="15" t="s">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D109" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D73" s="15" t="s">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D110" s="15" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D74" s="15" t="s">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D111" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D75" s="15" t="s">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D112" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D76" s="15" t="s">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D113" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D77" s="15" t="s">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D114" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D79" t="s">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D116" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D117" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="85" spans="3:5" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C85" s="12" t="s">
+    <row r="122" spans="3:5" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C122" s="12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="87" spans="3:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="D87" s="22" t="s">
+    <row r="124" spans="3:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="D124" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E89" s="15" t="s">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E126" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E90" s="15" t="s">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E127" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E91" s="15" t="s">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E128" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E93" s="15" t="s">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E130" s="15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E95" s="15" t="s">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E132" s="15" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E96" s="15" t="s">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E133" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E97" s="15" t="s">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E134" s="15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E98" s="15" t="s">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E135" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E100" s="15" t="s">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E137" s="15" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E101" s="15" t="s">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E138" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E102" s="15" t="s">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E139" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E103" s="15" t="s">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E140" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E104" s="15" t="s">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E141" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E106" s="15" t="s">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E143" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E107" s="15" t="s">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E144" s="15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E108" s="15" t="s">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E145" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E109" s="15" t="s">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E146" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E110" s="15" t="s">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E147" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E111" s="15" t="s">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E148" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E112" s="15" t="s">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E149" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E113" s="15" t="s">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E150" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E114" s="15" t="s">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E151" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E115" s="15" t="s">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E152" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E116" s="15" t="s">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E153" s="15" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E117" s="15" t="s">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E154" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E118" s="15" t="s">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E155" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E120" s="15" t="s">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E157" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E121" s="15" t="s">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E158" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E122" s="15" t="s">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E159" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E123" s="15" t="s">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E160" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E124" s="15" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E161" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E125" s="15" t="s">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E162" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E127" s="23" t="s">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E164" s="23" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E128" s="23" t="s">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E165" s="23" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E129" s="23" t="s">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E166" s="23" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="B133" s="18" t="s">
+    <row r="170" spans="2:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="B170" s="18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C135" s="12" t="s">
+    <row r="172" spans="2:5" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C172" s="12" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D136" s="15" t="s">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D173" s="15" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D137" t="s">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D174" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D138" s="15" t="s">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D175" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C141" s="12" t="s">
+    <row r="178" spans="3:4" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C178" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D142" t="s">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D179" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D143" t="s">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D180" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D144" t="s">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D181" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="T34:AI34"/>
+    <mergeCell ref="T35:AI35"/>
+    <mergeCell ref="T36:AI36"/>
+    <mergeCell ref="T37:AI37"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J36:S36"/>
+    <mergeCell ref="J37:S37"/>
+    <mergeCell ref="T26:AI26"/>
+    <mergeCell ref="T27:AI27"/>
+    <mergeCell ref="T28:AI28"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="T31:AI31"/>
+    <mergeCell ref="T32:AI32"/>
+    <mergeCell ref="T33:AI33"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="T21:AI21"/>
+    <mergeCell ref="T22:AI22"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="T25:AI25"/>
+    <mergeCell ref="T11:AI11"/>
+    <mergeCell ref="T12:AI12"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J11:S11"/>
+    <mergeCell ref="J12:S12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J17:S17"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="T17:AI17"/>
+    <mergeCell ref="T18:AI18"/>
+    <mergeCell ref="T19:AI19"/>
+    <mergeCell ref="T20:AI20"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="T7:AI7"/>
+    <mergeCell ref="T8:AI8"/>
+    <mergeCell ref="T9:AI9"/>
+    <mergeCell ref="T10:AI10"/>
+    <mergeCell ref="J7:S7"/>
+    <mergeCell ref="J8:S8"/>
+    <mergeCell ref="J9:S9"/>
+    <mergeCell ref="J10:S10"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" display="https://entra.microsoft.com/" xr:uid="{161D0109-823A-4872-9D22-CFACBD2B7F03}"/>
-    <hyperlink ref="AD30" r:id="rId2" xr:uid="{F57FF10C-7810-4208-AFF0-0216EB1E5AF2}"/>
+    <hyperlink ref="D54" r:id="rId1" display="https://entra.microsoft.com/" xr:uid="{161D0109-823A-4872-9D22-CFACBD2B7F03}"/>
+    <hyperlink ref="AD67" r:id="rId2" xr:uid="{F57FF10C-7810-4208-AFF0-0216EB1E5AF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -12944,7 +15323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E4AA02-398A-4F33-8FEB-5426645D7AAE}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -12962,6 +15341,1168 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA1ED9A-0E66-47EB-AC05-27D166C21970}">
+  <dimension ref="B2:R194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="T187" sqref="T187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="2.5" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D28" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E52" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E53" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D74" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D76" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E79" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="F80" t="s">
+        <v>684</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F81" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F82" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F84" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F88" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D91" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E92" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F94" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E96" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="F97" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="F98" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="E101" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" ht="36" x14ac:dyDescent="0.4">
+      <c r="F102" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="16" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="103" spans="4:17" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F103" s="24">
+        <v>0.52425925925925931</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="H103" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="4:17" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F104" s="24">
+        <v>0.52428240740740739</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="G106" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="G107" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="E109" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="F110" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="27"/>
+      <c r="Q110" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="F111" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="O111" s="29"/>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="F112" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="O112" s="29"/>
+    </row>
+    <row r="113" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F113" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="O113" s="29"/>
+    </row>
+    <row r="114" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F114" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="O114" s="29"/>
+    </row>
+    <row r="115" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F115" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="O115" s="29"/>
+    </row>
+    <row r="116" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F116" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="O116" s="29"/>
+    </row>
+    <row r="117" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F117" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="O117" s="29"/>
+    </row>
+    <row r="118" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F118" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="O118" s="29"/>
+      <c r="Q118" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F119" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="O119" s="29"/>
+    </row>
+    <row r="120" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F120" s="28"/>
+      <c r="O120" s="29"/>
+    </row>
+    <row r="121" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F121" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="O121" s="29"/>
+    </row>
+    <row r="122" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F122" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="O122" s="29"/>
+    </row>
+    <row r="123" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F123" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="O123" s="29"/>
+    </row>
+    <row r="124" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F124" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="O124" s="29"/>
+    </row>
+    <row r="125" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F125" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="O125" s="29"/>
+    </row>
+    <row r="126" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F126" s="28"/>
+      <c r="O126" s="29"/>
+    </row>
+    <row r="127" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F127" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="O127" s="29"/>
+    </row>
+    <row r="128" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F128" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="O128" s="29"/>
+    </row>
+    <row r="129" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F129" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="O129" s="29"/>
+    </row>
+    <row r="130" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F130" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="O130" s="29"/>
+    </row>
+    <row r="131" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F131" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="O131" s="29"/>
+    </row>
+    <row r="132" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F132" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="O132" s="29"/>
+    </row>
+    <row r="133" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F133" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="O133" s="29"/>
+    </row>
+    <row r="134" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F134" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="O134" s="29"/>
+    </row>
+    <row r="135" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F135" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="O135" s="29"/>
+    </row>
+    <row r="136" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F136" s="28"/>
+      <c r="O136" s="29"/>
+    </row>
+    <row r="137" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F137" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="O137" s="29"/>
+    </row>
+    <row r="138" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F138" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="O138" s="29"/>
+    </row>
+    <row r="139" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F139" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="O139" s="29"/>
+    </row>
+    <row r="140" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F140" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="O140" s="29"/>
+    </row>
+    <row r="141" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F141" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="O141" s="29"/>
+    </row>
+    <row r="142" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F142" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="O142" s="29"/>
+    </row>
+    <row r="143" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F143" s="28"/>
+      <c r="O143" s="29"/>
+    </row>
+    <row r="144" spans="6:15" x14ac:dyDescent="0.4">
+      <c r="F144" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="O144" s="29"/>
+    </row>
+    <row r="145" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F145" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="O145" s="29"/>
+    </row>
+    <row r="146" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F146" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="O146" s="29"/>
+    </row>
+    <row r="147" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F147" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="O147" s="29"/>
+    </row>
+    <row r="148" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F148" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="O148" s="29"/>
+    </row>
+    <row r="149" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F149" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="O149" s="29"/>
+    </row>
+    <row r="150" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F150" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="O150" s="29"/>
+    </row>
+    <row r="151" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F151" s="28"/>
+      <c r="O151" s="29"/>
+    </row>
+    <row r="152" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F152" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="O152" s="29"/>
+      <c r="Q152" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="153" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F153" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="O153" s="29"/>
+    </row>
+    <row r="154" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F154" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="O154" s="29"/>
+    </row>
+    <row r="155" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F155" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="O155" s="29"/>
+    </row>
+    <row r="156" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F156" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="O156" s="29"/>
+    </row>
+    <row r="157" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F157" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="O157" s="29"/>
+    </row>
+    <row r="158" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F158" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="O158" s="29"/>
+    </row>
+    <row r="159" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F159" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="O159" s="29"/>
+    </row>
+    <row r="160" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F160" s="28"/>
+      <c r="O160" s="29"/>
+    </row>
+    <row r="161" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F161" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="O161" s="29"/>
+    </row>
+    <row r="162" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F162" s="28"/>
+      <c r="O162" s="29"/>
+    </row>
+    <row r="163" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F163" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="O163" s="29"/>
+      <c r="Q163" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="164" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F164" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="O164" s="29"/>
+    </row>
+    <row r="165" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F165" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="O165" s="29"/>
+    </row>
+    <row r="166" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F166" s="28"/>
+      <c r="O166" s="29"/>
+    </row>
+    <row r="167" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F167" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
+      <c r="L167" s="31"/>
+      <c r="M167" s="31"/>
+      <c r="N167" s="31"/>
+      <c r="O167" s="32"/>
+    </row>
+    <row r="169" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="E169" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="170" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F170" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="27"/>
+      <c r="Q170" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="171" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F171" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="O171" s="29"/>
+    </row>
+    <row r="172" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F172" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="O172" s="29"/>
+    </row>
+    <row r="173" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F173" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="O173" s="29"/>
+    </row>
+    <row r="174" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F174" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="O174" s="29"/>
+    </row>
+    <row r="175" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F175" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="O175" s="29"/>
+    </row>
+    <row r="176" spans="5:17" x14ac:dyDescent="0.4">
+      <c r="F176" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="O176" s="29"/>
+    </row>
+    <row r="177" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F177" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="O177" s="29"/>
+    </row>
+    <row r="178" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F178" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="O178" s="29"/>
+      <c r="Q178" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="179" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F179" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="O179" s="29"/>
+    </row>
+    <row r="180" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F180" s="28"/>
+      <c r="O180" s="29"/>
+      <c r="Q180" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="181" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F181" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="31"/>
+      <c r="M181" s="31"/>
+      <c r="N181" s="31"/>
+      <c r="O181" s="32"/>
+      <c r="Q181" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="183" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E183" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="184" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F184" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="G184" s="39"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="39"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="M184" s="39"/>
+      <c r="N184" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="O184" s="39"/>
+      <c r="P184" s="39"/>
+      <c r="Q184" s="39"/>
+      <c r="R184" s="39"/>
+    </row>
+    <row r="185" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F185" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="G185" s="40"/>
+      <c r="H185" s="40"/>
+      <c r="I185" s="40"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="40"/>
+      <c r="L185" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="M185" s="40"/>
+      <c r="N185" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="O185" s="40"/>
+      <c r="P185" s="40"/>
+      <c r="Q185" s="40"/>
+      <c r="R185" s="40"/>
+    </row>
+    <row r="186" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F186" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="G186" s="40"/>
+      <c r="H186" s="40"/>
+      <c r="I186" s="40"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="40"/>
+      <c r="L186" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="M186" s="40"/>
+      <c r="N186" s="40" t="s">
+        <v>796</v>
+      </c>
+      <c r="O186" s="40"/>
+      <c r="P186" s="40"/>
+      <c r="Q186" s="40"/>
+      <c r="R186" s="40"/>
+    </row>
+    <row r="187" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F187" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="G187" s="40"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="40"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="40"/>
+      <c r="L187" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="M187" s="40"/>
+      <c r="N187" s="40" t="s">
+        <v>799</v>
+      </c>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40"/>
+      <c r="R187" s="40"/>
+    </row>
+    <row r="188" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F188" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="G188" s="40"/>
+      <c r="H188" s="40"/>
+      <c r="I188" s="40"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="40"/>
+      <c r="L188" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="M188" s="40"/>
+      <c r="N188" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="O188" s="40"/>
+      <c r="P188" s="40"/>
+      <c r="Q188" s="40"/>
+      <c r="R188" s="40"/>
+    </row>
+    <row r="190" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E190" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="191" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F191" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="G191" s="39"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="39"/>
+      <c r="J191" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="K191" s="39"/>
+      <c r="L191" s="39"/>
+      <c r="M191" s="39"/>
+      <c r="N191" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="O191" s="39"/>
+      <c r="P191" s="39"/>
+      <c r="Q191" s="39"/>
+      <c r="R191" s="39"/>
+    </row>
+    <row r="192" spans="5:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F192" s="37" t="s">
+        <v>735</v>
+      </c>
+      <c r="G192" s="37"/>
+      <c r="H192" s="37"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37" t="s">
+        <v>736</v>
+      </c>
+      <c r="K192" s="37"/>
+      <c r="L192" s="37"/>
+      <c r="M192" s="37"/>
+      <c r="N192" s="37" t="s">
+        <v>737</v>
+      </c>
+      <c r="O192" s="37"/>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="37"/>
+      <c r="R192" s="37"/>
+    </row>
+    <row r="193" spans="6:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F193" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="G193" s="37"/>
+      <c r="H193" s="37"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="K193" s="37"/>
+      <c r="L193" s="37"/>
+      <c r="M193" s="37"/>
+      <c r="N193" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="O193" s="37"/>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="37"/>
+      <c r="R193" s="37"/>
+    </row>
+    <row r="194" spans="6:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F194" s="37" t="s">
+        <v>741</v>
+      </c>
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
+      <c r="I194" s="37"/>
+      <c r="J194" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="K194" s="37"/>
+      <c r="L194" s="37"/>
+      <c r="M194" s="37"/>
+      <c r="N194" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="O194" s="37"/>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="37"/>
+      <c r="R194" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="N191:R191"/>
+    <mergeCell ref="N192:R192"/>
+    <mergeCell ref="N193:R193"/>
+    <mergeCell ref="N194:R194"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F192:I192"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="F184:K184"/>
+    <mergeCell ref="F185:K185"/>
+    <mergeCell ref="F186:K186"/>
+    <mergeCell ref="F187:K187"/>
+    <mergeCell ref="F194:I194"/>
+    <mergeCell ref="J191:M191"/>
+    <mergeCell ref="J192:M192"/>
+    <mergeCell ref="J193:M193"/>
+    <mergeCell ref="J194:M194"/>
+    <mergeCell ref="F188:K188"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="N184:R184"/>
+    <mergeCell ref="N185:R185"/>
+    <mergeCell ref="N186:R186"/>
+    <mergeCell ref="N187:R187"/>
+    <mergeCell ref="N188:R188"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="K80" r:id="rId1" xr:uid="{A4452933-4CDF-43EC-BB81-DACAC3D3ED76}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
